--- a/data/dataset1_TTCTscore.xlsx
+++ b/data/dataset1_TTCTscore.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10911"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kyle/Documents/STUDYATNCSU/2022fallsemeter/ST542/Data&amp;Coding/St542Project/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B7DE61FA-420C-4940-8C82-C0D86984EEC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64593D8F-BFAF-2249-B880-8FB517EF6D8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="420" yWindow="500" windowWidth="35420" windowHeight="21900" xr2:uid="{A02E7301-2AB7-5E48-8E6E-197686693B00}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="765" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="765" uniqueCount="45">
   <si>
     <t>Number</t>
   </si>
@@ -152,9 +152,6 @@
     <t>FlexibilitySA</t>
   </si>
   <si>
-    <t>AverageSA</t>
-  </si>
-  <si>
     <t>AUGRSFluency</t>
   </si>
   <si>
@@ -168,6 +165,12 @@
   </si>
   <si>
     <t>DECRSFluency</t>
+  </si>
+  <si>
+    <t>BeginAverageSA</t>
+  </si>
+  <si>
+    <t>EndAverageSA</t>
   </si>
 </sst>
 </file>
@@ -565,8 +568,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85238B25-F45C-734E-8527-2BE964620D81}">
   <dimension ref="A1:S250"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A201" workbookViewId="0">
-      <selection activeCell="T2" sqref="T2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P1" sqref="P1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -597,19 +600,19 @@
         <v>36</v>
       </c>
       <c r="I1" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="J1" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="K1" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="L1" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="M1" s="5" t="s">
         <v>41</v>
-      </c>
-      <c r="M1" s="5" t="s">
-        <v>42</v>
       </c>
       <c r="N1" s="5" t="s">
         <v>37</v>
@@ -618,16 +621,16 @@
         <v>36</v>
       </c>
       <c r="P1" s="5" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="Q1" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="R1" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="S1" s="5" t="s">
         <v>40</v>
-      </c>
-      <c r="S1" s="5" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.2">

--- a/data/dataset1_TTCTscore.xlsx
+++ b/data/dataset1_TTCTscore.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kyle/Documents/STUDYATNCSU/2022fallsemeter/ST542/Data&amp;Coding/St542Project/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64593D8F-BFAF-2249-B880-8FB517EF6D8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BDF3030-7971-914B-828B-8616D652CDAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="420" yWindow="500" windowWidth="35420" windowHeight="21900" xr2:uid="{A02E7301-2AB7-5E48-8E6E-197686693B00}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="765" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="765" uniqueCount="49">
   <si>
     <t>Number</t>
   </si>
@@ -146,19 +146,7 @@
     <t>AugFluencySA</t>
   </si>
   <si>
-    <t>OriginalitySA</t>
-  </si>
-  <si>
-    <t>FlexibilitySA</t>
-  </si>
-  <si>
     <t>AUGRSFluency</t>
-  </si>
-  <si>
-    <t>RSFlexibility</t>
-  </si>
-  <si>
-    <t>RSOriginality</t>
   </si>
   <si>
     <t>DECFluencySA</t>
@@ -167,10 +155,34 @@
     <t>DECRSFluency</t>
   </si>
   <si>
-    <t>BeginAverageSA</t>
+    <t>AugFlexibilitySA</t>
   </si>
   <si>
-    <t>EndAverageSA</t>
+    <t>AugOriginalitySA</t>
+  </si>
+  <si>
+    <t>AugAverageSA</t>
+  </si>
+  <si>
+    <t>AugRSFlexibility</t>
+  </si>
+  <si>
+    <t>AugRSOriginality</t>
+  </si>
+  <si>
+    <t>DecFlexibilitySA</t>
+  </si>
+  <si>
+    <t>DecOriginalitySA</t>
+  </si>
+  <si>
+    <t>DecAverageSA</t>
+  </si>
+  <si>
+    <t>DecRSFlexibility</t>
+  </si>
+  <si>
+    <t>DecRSOriginality</t>
   </si>
 </sst>
 </file>
@@ -568,11 +580,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85238B25-F45C-734E-8527-2BE964620D81}">
   <dimension ref="A1:S250"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P1" sqref="P1"/>
+    <sheetView tabSelected="1" topLeftCell="A72" zoomScale="107" workbookViewId="0">
+      <selection activeCell="T4" sqref="T4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="6" max="6" width="16.33203125" customWidth="1"/>
+    <col min="7" max="7" width="18.1640625" customWidth="1"/>
+    <col min="10" max="10" width="15.83203125" customWidth="1"/>
+    <col min="11" max="11" width="16.5" customWidth="1"/>
+    <col min="13" max="13" width="18.1640625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
@@ -594,43 +613,43 @@
         <v>35</v>
       </c>
       <c r="G1" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="M1" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="H1" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="J1" s="5" t="s">
+      <c r="N1" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="O1" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="P1" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q1" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="K1" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="L1" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="M1" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="N1" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="O1" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="P1" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q1" s="5" t="s">
-        <v>42</v>
-      </c>
       <c r="R1" s="5" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="S1" s="5" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.2">
